--- a/biology/Botanique/Parc_Kampa/Parc_Kampa.xlsx
+++ b/biology/Botanique/Parc_Kampa/Parc_Kampa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc Kampa est un parc situé dans la partie sud de l'Île Kampa, entre le cours principal de la rivière Vltava et son affluent - la Certovka dans le centre de Prague, en République Tchèque[1]. Le parc, de 2,6 hectares, a été créé après la Seconde Guerre mondiale en réunissant les anciens jardins historiques. L’aménagement actuel du parc dans le style paysager anglais remonte à 1947-1948. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc Kampa est un parc situé dans la partie sud de l'Île Kampa, entre le cours principal de la rivière Vltava et son affluent - la Certovka dans le centre de Prague, en République Tchèque. Le parc, de 2,6 hectares, a été créé après la Seconde Guerre mondiale en réunissant les anciens jardins historiques. L’aménagement actuel du parc dans le style paysager anglais remonte à 1947-1948. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa forme allongée s’étend de la villa dite Werich et du palais Liechtenstein au sud jusqu’aux maisons Jechental. À l’ouest, le parc est bordé par la Certovka (ou ruisseau du Diable), à l’est par la rivière Vltava[2]. 
-À peu près au milieu du côté est du parc se trouve le bâtiment de l’ancien Moulin de Sova, qui abrite le musée Kampa depuis 2002. Au sud de celui-ci se trouve le bâtiment de l’ancien palais d’été de Michnov, qui est un monument culturel[3]. L’ancienne maison de jardin au-dessus de la Čertovka, sur le côté ouest du parc, est également un monument culturel[4].
-Divers événements sociaux ou culturels sont parfois organisés dans le parc[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa forme allongée s’étend de la villa dite Werich et du palais Liechtenstein au sud jusqu’aux maisons Jechental. À l’ouest, le parc est bordé par la Certovka (ou ruisseau du Diable), à l’est par la rivière Vltava. 
+À peu près au milieu du côté est du parc se trouve le bâtiment de l’ancien Moulin de Sova, qui abrite le musée Kampa depuis 2002. Au sud de celui-ci se trouve le bâtiment de l’ancien palais d’été de Michnov, qui est un monument culturel. L’ancienne maison de jardin au-dessus de la Čertovka, sur le côté ouest du parc, est également un monument culturel.
+Divers événements sociaux ou culturels sont parfois organisés dans le parc.
 </t>
         </is>
       </c>
